--- a/kito/short test/short-test06 1.xlsx
+++ b/kito/short test/short-test06 1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FC9B437F-5153-4F3E-8FD3-4B5C536B84E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334EE3C4-D573-42E9-B4A6-A88DA946DDF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E2014-7CE5-49AA-9E66-99DAF5FE4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
   <si>
     <t>[6] short test</t>
     <phoneticPr fontId="1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>select</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">   return -1;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,23 +174,32 @@
   <si>
     <t>return z;</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -208,19 +213,34 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -472,11 +498,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -596,16 +662,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,38 +689,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Phần trăm" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -674,7 +801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,13 +1124,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N35"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.875" bestFit="1" customWidth="1"/>
@@ -1018,81 +1145,87 @@
     <col min="13" max="14" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="57">
+        <f>$L$37/$L$36</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="L2" s="58"/>
       <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.9" thickBot="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="53" t="s">
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="59">
+        <f>SUM($M$37:$N$37)/SUM($M$36:$N$36)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L3" s="60"/>
       <c r="M3" s="32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.9" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="51" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="51" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="51" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="59"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.9" thickBot="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="56"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="37" t="s">
         <v>12</v>
       </c>
@@ -1130,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.45">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1138,74 +1271,74 @@
         <v>15</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
       <c r="L8" s="14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="14.45">
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" s="7"/>
       <c r="B9" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="9"/>
@@ -1220,82 +1353,82 @@
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="14.45">
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" s="3">
         <v>3</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="8"/>
       <c r="L11" s="14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="14.45">
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" s="7"/>
       <c r="B12" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="21"/>
@@ -1303,145 +1436,145 @@
       <c r="F12" s="16"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="15"/>
       <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="14.45">
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="8"/>
       <c r="L14" s="14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="14.45">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
       <c r="F15" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
       <c r="I15" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="8"/>
       <c r="L15" s="44" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="14.45">
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
       <c r="F16" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
       <c r="I16" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="8"/>
       <c r="L16" s="14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="14.45">
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" s="7"/>
       <c r="B17" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="21"/>
@@ -1449,173 +1582,173 @@
       <c r="F17" s="16"/>
       <c r="G17" s="21"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="31"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="15"/>
       <c r="M17" s="9"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="14.45">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
       <c r="F18" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="14.45">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" s="1">
         <v>10</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
       <c r="F20" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="44" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="14.45">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="1">
         <v>12</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="I21" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="8"/>
       <c r="L21" s="14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="14.45">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="1">
         <v>13</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
       <c r="F22" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
       <c r="I22" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="44" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="14.45">
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" s="7"/>
       <c r="B23" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="21"/>
@@ -1630,138 +1763,138 @@
       <c r="M23" s="9"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="14.45">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" s="1">
         <v>14</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L24" s="44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" s="1">
         <v>15</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="I25" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="8"/>
       <c r="L25" s="14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="14.45">
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="1">
         <v>16</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="F26" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="I26" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="14.45">
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" s="1">
         <v>17</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
       <c r="F27" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
       <c r="I27" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="8"/>
       <c r="L27" s="14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="14.45">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" s="7"/>
       <c r="B28" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="21"/>
@@ -1776,166 +1909,166 @@
       <c r="M28" s="9"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="14.45">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" s="3">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
       <c r="F29" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
       <c r="I29" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="8"/>
       <c r="L29" s="44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="14.45">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" s="1">
         <v>19</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" s="1">
         <v>20</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
       <c r="F31" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
       <c r="I31" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="8"/>
       <c r="L31" s="44" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="14.45">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" s="1">
         <v>21</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
       <c r="F32" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
       <c r="I32" s="17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="14.45">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" s="1">
         <v>22</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
       <c r="F33" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
       <c r="I33" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="8"/>
       <c r="L33" s="44" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="14.45">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34" s="7"/>
       <c r="B34" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="21"/>
@@ -1950,51 +2083,96 @@
       <c r="M34" s="9"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="2">
         <v>23</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
       <c r="F35" s="37" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="42"/>
       <c r="I35" s="37" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="41"/>
-      <c r="N35" s="42"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="63"/>
+      <c r="N35" s="61"/>
+    </row>
+    <row r="36" spans="1:14" ht="15">
+      <c r="K36" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="64">
+        <f>COUNTA(L$7:L$35)</f>
+        <v>23</v>
+      </c>
+      <c r="M36" s="64">
+        <f t="shared" ref="M36:N36" si="0">COUNTA(M$7:M$35)</f>
+        <v>6</v>
+      </c>
+      <c r="N36" s="64">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15">
+      <c r="K37" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="64">
+        <f>COUNTIF(L$7:L$35,$K$37)</f>
+        <v>13</v>
+      </c>
+      <c r="M37" s="64">
+        <f t="shared" ref="M37:N37" si="1">COUNTIF(M$7:M$35,$K$37)</f>
+        <v>2</v>
+      </c>
+      <c r="N37" s="64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="K38" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C7:N35">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:K38">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
@@ -2003,7 +2181,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M30:N30 M7:N7 M10:N10 M13:N13 M19:N19 M24:N24 C7:C8 D7:E7 F7:F8 G7:H7 I7:I8 J7:K7 L7:L8 C10:C11 D10:E10 F10:F11 G10:H10 I10:I11 J10:K10 L10:L11 C13:C16 D13:E13 F13:F16 G13:H13 I13:I16 J13:K13 L13:L16 C18:C22 J19:K19 F18:F22 D19:E19 I18:I22 G19:H19 L18:L22 C24:C27 D24:E24 F24:F27 G24:H24 I24:I27 J24:K24 L24:L27 C29:C33 J30:K30 F29:F33 D30:E30 I29:I33 G30:H30 L29:L33 C35 F35 I35 L35" xr:uid="{A21DA170-5429-445F-BC61-69C068A7F851}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M30:N30 M7:N7 M10:N10 M13:N13 M19:N19 M24:N24 C7:C8 D7:E7 F7:F8 G7:H7 C18 I35 L7:L8 C10:C11 D10:E10 F10:F11 G10:H10 C29 I7:I8 L10:L11 L35 D13:E13 F13:F16 G13:H13 J19:K19 I10:I11 L13:L16 C13:C16 I13:I16 F18:F22 C19:E19 C31:C33 G19:H19 L18:L22 C20:C22 C24:E24 F24:F27 G24:H24 I24:I27 J24:K24 L24:L27 C25:C27 J30:K30 F29:F33 C30:E30 I29:I33 G30:H30 L29:L33 C35 F35 J7:K7 J10:K10 J13:K13 I18:I22 K37:K38" xr:uid="{A21DA170-5429-445F-BC61-69C068A7F851}">
       <formula1>"O,X"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2013,15 +2191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x01010013F8396995529041B1B7AA44754B2A02" ma:contentTypeVersion="9" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="93642b6ade9fd80b8ee206dffe6bf174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8063628f-0d34-4813-a39d-e73dba339b4e" xmlns:ns3="51c5f7d3-17ea-4f23-9a7d-71e61283942a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e75ebe3357dceca99c4ef3c868ad12" ns2:_="" ns3:_="">
     <xsd:import namespace="8063628f-0d34-4813-a39d-e73dba339b4e"/>
@@ -2204,6 +2373,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2217,13 +2395,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10EBC7B-0945-4049-91FF-94522539307E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F2B2CCB-B984-4C76-9C55-1949888CFBE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8063628f-0d34-4813-a39d-e73dba339b4e"/>
+    <ds:schemaRef ds:uri="51c5f7d3-17ea-4f23-9a7d-71e61283942a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F2B2CCB-B984-4C76-9C55-1949888CFBE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10EBC7B-0945-4049-91FF-94522539307E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E102679-3E98-40E3-A13D-932E5CAEB1A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E102679-3E98-40E3-A13D-932E5CAEB1A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8063628f-0d34-4813-a39d-e73dba339b4e"/>
+    <ds:schemaRef ds:uri="51c5f7d3-17ea-4f23-9a7d-71e61283942a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>